--- a/Invoices/P088343_Vinh.xlsx
+++ b/Invoices/P088343_Vinh.xlsx
@@ -480,10 +480,10 @@
         <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>200</v>
+        <v>1286</v>
       </c>
       <c r="E2" t="n">
-        <v>166</v>
+        <v>181.72</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
